--- a/opdracht_2D.xlsx
+++ b/opdracht_2D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\hhs\Jaar 3 software engineering p3\Software architecture &amp; modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\GitHub\H-IOT-1-software-architecture-and-designpatterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC876E65-6E11-4A52-95DE-9AF2D5D6C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83F614-6621-44D6-91AB-479F24D7AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,11 +1605,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="0">(F3+1)/B3</f>
-        <v>1.1599999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" si="1">E3/(E3+D3)</f>
